--- a/docs/Gerenciamento de Projeto/JOB SEA- Checklist Verificacao de Projeto1.xlsx
+++ b/docs/Gerenciamento de Projeto/JOB SEA- Checklist Verificacao de Projeto1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{3936AA08-61E6-46BB-9389-71FDC8B0C6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248F5254-4C0F-4DF9-8E6C-AB873661C54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="132">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1021,6 +1021,9 @@
   </si>
   <si>
     <t>Margem de erro de 30%</t>
+  </si>
+  <si>
+    <t>Cronograma e telas do projeto Web Design.</t>
   </si>
 </sst>
 </file>
@@ -2090,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2177,7 +2180,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -2188,7 +2191,9 @@
       <c r="D6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -4075,17 +4080,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4742,11 +4747,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4754,6 +4754,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">
